--- a/kerjaan/kak rama/invoice.xlsx
+++ b/kerjaan/kak rama/invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\kerjaan\kak rama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7D72CE-30ED-4317-B20A-B51A9BC3D8AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220772D5-F862-4330-9AC6-FADDC8668384}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{A1F9DDE2-545A-4933-917B-2E5FA6E0245D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Jasa Perbaikan Website</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>katalogzen.vercel.app</t>
+  </si>
+  <si>
+    <t>Tanggal Pembayaran</t>
+  </si>
+  <si>
+    <t>Sejumlah</t>
+  </si>
+  <si>
+    <t>Sisa</t>
   </si>
 </sst>
 </file>
@@ -58,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +95,13 @@
     </font>
     <font>
       <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -125,24 +144,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -460,80 +488,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B64BA0-A722-49E3-AD4D-8B7A60BC0810}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
-        <f t="shared" ref="B4:B5" si="0">D4/150000</f>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B6" si="0">D5/150000</f>
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D5" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="3">
         <v>700000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D7" s="4">
         <v>1000000</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>45181</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:C3"/>
+  <mergeCells count="3">
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
